--- a/biology/Botanique/Prosopis_tamarugo/Prosopis_tamarugo.xlsx
+++ b/biology/Botanique/Prosopis_tamarugo/Prosopis_tamarugo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le tamarugo (Prosopis tamarugo)  est un arbre de la famille des Mimosaceae, ou des Fabaceae selon la classification phylogénétique.
 Cet arbre peut obtenir l'eau dont il a besoin uniquement à partir de la rosée et s'accommode de climats arides et de sols salins où il est le seul arbre à pousser.
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On le trouve uniquement au nord du Chili, en particulier dans la pampa del Tamarugal, environ  70 km à l'est d'Iquique.
 </t>
@@ -543,10 +557,12 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est une source précieuse de charbon et de bois et les feuilles et les fruits servent également de fourrage[2], notamment pour les chèvres.
-Il a été introduit en Europe (Espagne[3]).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est une source précieuse de charbon et de bois et les feuilles et les fruits servent également de fourrage, notamment pour les chèvres.
+Il a été introduit en Europe (Espagne).
 			Feuilles du tamarugo
 			Fruits du tamarugo
 </t>
